--- a/Cp2/CP2-Objetivos/CP2-Objetivo 2.xlsx
+++ b/Cp2/CP2-Objetivos/CP2-Objetivo 2.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E01518-CF4A-664E-9376-90605C9FAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076B2078-392C-4672-8D02-67319DDEF3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">n </t>
   </si>
@@ -46,13 +52,28 @@
     <t>1</t>
   </si>
   <si>
-    <t>Sinal Sinusoidal</t>
+    <t>n</t>
   </si>
   <si>
-    <t>Sinal Quadrada (100 Hz)</t>
+    <t xml:space="preserve">Sinal Sinusoidal (100Hz) a = 0,4 </t>
   </si>
   <si>
-    <t>Sinal Triangular (100 Hz)</t>
+    <t>Sinal Triangular (100 Hz) a= 0,4</t>
+  </si>
+  <si>
+    <t>Sinal Quadrada (100 Hz) a =0,4</t>
+  </si>
+  <si>
+    <t>Sinal Quadrada (100 Hz) a =0</t>
+  </si>
+  <si>
+    <t>Sinal Quadrada (100 Hz) a =1</t>
+  </si>
+  <si>
+    <t>Va(V)</t>
+  </si>
+  <si>
+    <t>Vf(V)</t>
   </si>
 </sst>
 </file>
@@ -68,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +123,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,15 +605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +668,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +707,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1333,7 +1382,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1846,7 +1895,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2522,7 +2571,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3198,7 +3247,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3874,7 +3923,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4547,6 +4596,1779 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TENSÕES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OBTIDAS NÃO FILTRADAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent6"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$AO$5:$AO$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]onda quadrada a=0'!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07D9-43A0-8C52-CB158F563596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="638479535"/>
+        <c:axId val="638473711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="638479535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638473711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638473711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638479535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent6"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TENSÕES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OBTIDAS FILTRADAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$AO$5:$AO$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]onda quadrada a=0'!$E$3:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C747-4B01-B6DB-E9F242F45E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="716201935"/>
+        <c:axId val="716211919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="716201935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716211919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="716211919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716201935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent2"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent2"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tENSÕES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OBTIDAS NÃO fILTRDAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>va</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent6"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$BB$5:$BB$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]onda quadrada a=1'!$D$3:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EE6-447B-8CC5-AFB174FEC0A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="860286655"/>
+        <c:axId val="860281663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="860286655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860281663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="860281663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860286655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent6"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -4707,6 +6529,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -7353,6 +9255,1593 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8114,11 +11603,1111 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D09371F-70A5-41B7-9D3A-17A8D459C041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF632740-3DA1-4BB3-A7E6-1065C00EE0BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26FC18F-1AF2-40BF-BCEA-2B0D3DAB62C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="onda quadrada a=0"/>
+      <sheetName val="onda quadrada a=1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0.61</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1E-3</v>
+          </cell>
+          <cell r="D4">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="E4">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2E-3</v>
+          </cell>
+          <cell r="D5">
+            <v>0.47</v>
+          </cell>
+          <cell r="E5">
+            <v>0.56999999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="D6">
+            <v>0.47</v>
+          </cell>
+          <cell r="E6">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="D7">
+            <v>1.87</v>
+          </cell>
+          <cell r="E7">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="D8">
+            <v>1.75</v>
+          </cell>
+          <cell r="E8">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>1.86</v>
+          </cell>
+          <cell r="E9">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="D10">
+            <v>1.75</v>
+          </cell>
+          <cell r="E10">
+            <v>1.86</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="D11">
+            <v>1.76</v>
+          </cell>
+          <cell r="E11">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>9.0000000000000011E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="E12">
+            <v>1.76</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0.01</v>
+          </cell>
+          <cell r="D13">
+            <v>0.52</v>
+          </cell>
+          <cell r="E13">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>1.0999999999999999E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="E14">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>1.2E-2</v>
+          </cell>
+          <cell r="D15">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="E15">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>1.3000000000000001E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>0.53</v>
+          </cell>
+          <cell r="E16">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>1.4E-2</v>
+          </cell>
+          <cell r="D17">
+            <v>1.73</v>
+          </cell>
+          <cell r="E17">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>1.81</v>
+          </cell>
+          <cell r="E18">
+            <v>1.73</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>1.6E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>1.83</v>
+          </cell>
+          <cell r="E19">
+            <v>1.81</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+          <cell r="D20">
+            <v>1.76</v>
+          </cell>
+          <cell r="E20">
+            <v>1.83</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>1.8000000000000002E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>1.8</v>
+          </cell>
+          <cell r="E21">
+            <v>1.76</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>1.9E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>0.59</v>
+          </cell>
+          <cell r="E22">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>0.02</v>
+          </cell>
+          <cell r="D23">
+            <v>0.47</v>
+          </cell>
+          <cell r="E23">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+          <cell r="D24">
+            <v>0.59</v>
+          </cell>
+          <cell r="E24">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2.1999999999999999E-2</v>
+          </cell>
+          <cell r="D25">
+            <v>0.48</v>
+          </cell>
+          <cell r="E25">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2.3E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="E26">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>2.4E-2</v>
+          </cell>
+          <cell r="D27">
+            <v>0.53</v>
+          </cell>
+          <cell r="E27">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>1.72</v>
+          </cell>
+          <cell r="E28">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>2.6000000000000002E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>1.71</v>
+          </cell>
+          <cell r="E29">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>2.7E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>1.72</v>
+          </cell>
+          <cell r="E30">
+            <v>1.71</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>1.76</v>
+          </cell>
+          <cell r="E31">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>2.9000000000000001E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>1.87</v>
+          </cell>
+          <cell r="E32">
+            <v>1.76</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0.03</v>
+          </cell>
+          <cell r="D33">
+            <v>0.46</v>
+          </cell>
+          <cell r="E33">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3.1E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>0.47</v>
+          </cell>
+          <cell r="E34">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.2000000000000001E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>0.61</v>
+          </cell>
+          <cell r="E35">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>3.3000000000000002E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>0.56000000000000005</v>
+          </cell>
+          <cell r="E36">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>3.4000000000000002E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>0.51</v>
+          </cell>
+          <cell r="E37">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>1.71</v>
+          </cell>
+          <cell r="E38">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>3.6000000000000004E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>1.82</v>
+          </cell>
+          <cell r="E39">
+            <v>1.71</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>3.6999999999999998E-2</v>
+          </cell>
+          <cell r="D40">
+            <v>1.78</v>
+          </cell>
+          <cell r="E40">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>3.7999999999999999E-2</v>
+          </cell>
+          <cell r="D41">
+            <v>1.79</v>
+          </cell>
+          <cell r="E41">
+            <v>1.78</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>3.9E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>1.85</v>
+          </cell>
+          <cell r="E42">
+            <v>1.79</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>0.04</v>
+          </cell>
+          <cell r="D43">
+            <v>0.53</v>
+          </cell>
+          <cell r="E43">
+            <v>1.85</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>4.1000000000000002E-2</v>
+          </cell>
+          <cell r="D44">
+            <v>0.59</v>
+          </cell>
+          <cell r="E44">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>4.2000000000000003E-2</v>
+          </cell>
+          <cell r="D45">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="E45">
+            <v>0.59</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>4.3000000000000003E-2</v>
+          </cell>
+          <cell r="D46">
+            <v>0.46</v>
+          </cell>
+          <cell r="E46">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>4.3999999999999997E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>0.46</v>
+          </cell>
+          <cell r="E47">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="D48">
+            <v>1.74</v>
+          </cell>
+          <cell r="E48">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>4.5999999999999999E-2</v>
+          </cell>
+          <cell r="D49">
+            <v>1.8</v>
+          </cell>
+          <cell r="E49">
+            <v>1.74</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>4.7E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>1.72</v>
+          </cell>
+          <cell r="E50">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>4.8000000000000001E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>1.79</v>
+          </cell>
+          <cell r="E51">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>1.71</v>
+          </cell>
+          <cell r="E52">
+            <v>1.79</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>0.05</v>
+          </cell>
+          <cell r="D53">
+            <v>0.61</v>
+          </cell>
+          <cell r="E53">
+            <v>1.71</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1E-3</v>
+          </cell>
+          <cell r="D4">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2E-3</v>
+          </cell>
+          <cell r="D5">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="D6">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+          <cell r="D7">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="D8">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="D10">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>8.0000000000000002E-3</v>
+          </cell>
+          <cell r="D11">
+            <v>1.71</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>9.0000000000000011E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0.01</v>
+          </cell>
+          <cell r="D13">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>1.0999999999999999E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>1.85</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>1.2E-2</v>
+          </cell>
+          <cell r="D15">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>1.3000000000000001E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>1.4E-2</v>
+          </cell>
+          <cell r="D17">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>1.6E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+          <cell r="D20">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>1.8000000000000002E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>1.83</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>1.9E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>0.02</v>
+          </cell>
+          <cell r="D23">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+          <cell r="D24">
+            <v>1.86</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2.1999999999999999E-2</v>
+          </cell>
+          <cell r="D25">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2.3E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>2.4E-2</v>
+          </cell>
+          <cell r="D27">
+            <v>0.56000000000000005</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>2.6000000000000002E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>2.7E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>1.78</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>1.86</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>2.9000000000000001E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>1.73</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0.03</v>
+          </cell>
+          <cell r="D33">
+            <v>1.82</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3.1E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>1.77</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.2000000000000001E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>3.3000000000000002E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>0.57999999999999996</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>3.4000000000000002E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>0.62</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>3.6000000000000004E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>3.6999999999999998E-2</v>
+          </cell>
+          <cell r="D40">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>3.7999999999999999E-2</v>
+          </cell>
+          <cell r="D41">
+            <v>1.78</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>3.9E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>0.04</v>
+          </cell>
+          <cell r="D43">
+            <v>1.86</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>4.1000000000000002E-2</v>
+          </cell>
+          <cell r="D44">
+            <v>1.71</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>4.2000000000000003E-2</v>
+          </cell>
+          <cell r="D45">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>4.3000000000000003E-2</v>
+          </cell>
+          <cell r="D46">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>4.3999999999999997E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="D48">
+            <v>0.46</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>4.5999999999999999E-2</v>
+          </cell>
+          <cell r="D49">
+            <v>0.48</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>4.7E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>4.8000000000000001E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>1.87</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>1.76</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>0.05</v>
+          </cell>
+          <cell r="D53">
+            <v>1.71</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8414,54 +13003,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AM104"/>
+  <dimension ref="A2:BM104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BN29" sqref="BN29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="G3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="12"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
-      <c r="AG3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AG3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="36"/>
+      <c r="AT3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="36"/>
+      <c r="BG3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="35"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="36"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -8474,36 +13081,60 @@
       <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="28" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AC4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AO4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE4" s="46" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
@@ -8516,7 +13147,7 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="22">
         <v>1</v>
       </c>
       <c r="P5" s="2">
@@ -8525,27 +13156,51 @@
       <c r="Q5" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="35">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="32">
         <v>1</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="24">
         <v>0</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="24">
         <v>1.87</v>
       </c>
-      <c r="AE5" s="32">
+      <c r="AE5" s="29">
         <v>0</v>
       </c>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AO5" s="37">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="AR5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="37">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="BE5" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <f>B5+1</f>
         <v>2</v>
@@ -8560,7 +13215,7 @@
       <c r="E6" s="4">
         <v>0.76</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="22">
         <f>1+O5</f>
         <v>2</v>
       </c>
@@ -8571,29 +13226,56 @@
       <c r="Q6" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="19">
         <v>0.34</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="35">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="32">
         <f>AB5+1</f>
         <v>2</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AC6" s="24">
         <f>AC5+1</f>
         <v>1</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="24">
         <v>1.81</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE6" s="29">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AO6" s="37">
+        <f>AO5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP6" s="38">
+        <f>1+AP5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR6" s="39">
+        <v>0.61</v>
+      </c>
+      <c r="BB6" s="37">
+        <f>SUM(BB5+1)</f>
+        <v>2</v>
+      </c>
+      <c r="BC6" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="38">
+        <v>0.62</v>
+      </c>
+      <c r="BE6" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <f t="shared" ref="B7:B55" si="0">B6+1</f>
         <v>3</v>
@@ -8608,7 +13290,7 @@
       <c r="E7" s="4">
         <v>0.76</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="22">
         <f t="shared" ref="O7:O55" si="2">1+O6</f>
         <v>3</v>
       </c>
@@ -8619,29 +13301,57 @@
       <c r="Q7" s="2">
         <v>0.84</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="19">
         <v>0.48</v>
       </c>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="35">
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="32">
         <f t="shared" ref="AB7:AB55" si="4">AB6+1</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="24">
         <f t="shared" ref="AC7:AC55" si="5">AC6+1</f>
         <v>2</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="24">
         <v>0.47</v>
       </c>
-      <c r="AE7" s="32">
+      <c r="AE7" s="29">
         <v>1.53</v>
       </c>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AO7" s="37">
+        <f t="shared" ref="AO7:AO55" si="6">AO6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AP7" s="38">
+        <f t="shared" ref="AP7:AP55" si="7">1+AP6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="AR7" s="39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BB7" s="37">
+        <f t="shared" ref="BB7:BB55" si="8">SUM(BB6+1)</f>
+        <v>3</v>
+      </c>
+      <c r="BC7" s="38">
+        <f>BC6+1</f>
+        <v>2</v>
+      </c>
+      <c r="BD7" s="38">
+        <v>0.54</v>
+      </c>
+      <c r="BE7" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8656,7 +13366,7 @@
       <c r="E8" s="4">
         <v>0.65</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -8667,29 +13377,57 @@
       <c r="Q8" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="19">
         <v>0.69</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="35">
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="32">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="24">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="24">
         <v>0.49</v>
       </c>
-      <c r="AE8" s="32">
+      <c r="AE8" s="29">
         <v>0.9</v>
       </c>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AO8" s="37">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AP8" s="38">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="AR8" s="39">
+        <v>0.47</v>
+      </c>
+      <c r="BB8" s="37">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BC8" s="38">
+        <f t="shared" ref="BC8:BC55" si="9">BC7+1</f>
+        <v>3</v>
+      </c>
+      <c r="BD8" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="BE8" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8704,7 +13442,7 @@
       <c r="E9" s="4">
         <v>0.53</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -8715,29 +13453,57 @@
       <c r="Q9" s="2">
         <v>1.26</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="19">
         <v>0.94</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="35">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AC9" s="24">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="24">
         <v>0.48</v>
       </c>
-      <c r="AE9" s="32">
+      <c r="AE9" s="29">
         <v>0.65</v>
       </c>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AO9" s="37">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AP9" s="38">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="AR9" s="39">
+        <v>0.47</v>
+      </c>
+      <c r="BB9" s="37">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BC9" s="38">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BD9" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE9" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8752,7 +13518,7 @@
       <c r="E10" s="4">
         <v>0.6</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -8763,29 +13529,57 @@
       <c r="Q10" s="2">
         <v>1.58</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="19">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="35">
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="32">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AC10" s="27">
+      <c r="AC10" s="24">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="24">
         <v>0.62</v>
       </c>
-      <c r="AE10" s="32">
+      <c r="AE10" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AO10" s="37">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AP10" s="38">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AQ10" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="AR10" s="39">
+        <v>1.87</v>
+      </c>
+      <c r="BB10" s="37">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="BC10" s="38">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BD10" s="38">
+        <v>0.54</v>
+      </c>
+      <c r="BE10" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8800,7 +13594,7 @@
       <c r="E11" s="4">
         <v>0.85</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="22">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -8811,29 +13605,57 @@
       <c r="Q11" s="2">
         <v>1.86</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="19">
         <v>1.4</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="35">
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="32">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC11" s="24">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="24">
         <v>0.59</v>
       </c>
-      <c r="AE11" s="32">
+      <c r="AE11" s="29">
         <v>0.59</v>
       </c>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AO11" s="37">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AP11" s="38">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AQ11" s="38">
+        <v>1.86</v>
+      </c>
+      <c r="AR11" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="BB11" s="37">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BC11" s="38">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BD11" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BE11" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8848,7 +13670,7 @@
       <c r="E12" s="4">
         <v>1.22</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="22">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -8859,29 +13681,57 @@
       <c r="Q12" s="2">
         <v>1.49</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="19">
         <v>1.67</v>
       </c>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="35">
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="32">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AC12" s="27">
+      <c r="AC12" s="24">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="24">
         <v>1.72</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AE12" s="29">
         <v>0.59</v>
       </c>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AO12" s="37">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AP12" s="38">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AQ12" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="AR12" s="39">
+        <v>1.86</v>
+      </c>
+      <c r="BB12" s="37">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BC12" s="38">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BD12" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="BE12" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8896,7 +13746,7 @@
       <c r="E13" s="4">
         <v>1.55</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -8907,29 +13757,57 @@
       <c r="Q13" s="2">
         <v>1.31</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="19">
         <v>1.56</v>
       </c>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="35">
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="32">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AC13" s="24">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="24">
         <v>1.72</v>
       </c>
-      <c r="AE13" s="32">
+      <c r="AE13" s="29">
         <v>1.27</v>
       </c>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AO13" s="37">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AP13" s="38">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AQ13" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="AR13" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="BB13" s="37">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BC13" s="38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="BD13" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="BE13" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8944,7 +13822,7 @@
       <c r="E14" s="4">
         <v>1.66</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -8955,29 +13833,57 @@
       <c r="Q14" s="2">
         <v>0.96</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="19">
         <v>1.41</v>
       </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="35">
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="32">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AC14" s="24">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="24">
         <v>1.81</v>
       </c>
-      <c r="AE14" s="32">
+      <c r="AE14" s="29">
         <v>1.54</v>
       </c>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AO14" s="37">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AP14" s="38">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AQ14" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR14" s="39">
+        <v>1.76</v>
+      </c>
+      <c r="BB14" s="37">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BC14" s="38">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="BD14" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="BE14" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8992,7 +13898,7 @@
       <c r="E15" s="4">
         <v>1.71</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -9003,29 +13909,57 @@
       <c r="Q15" s="2">
         <v>0.68</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="35">
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="32">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AC15" s="24">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="24">
         <v>1.78</v>
       </c>
-      <c r="AE15" s="32">
+      <c r="AE15" s="29">
         <v>1.71</v>
       </c>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AO15" s="37">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AP15" s="38">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AQ15" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="AR15" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB15" s="37">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="BC15" s="38">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="BD15" s="38">
+        <v>1.82</v>
+      </c>
+      <c r="BE15" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9040,7 +13974,7 @@
       <c r="E16" s="4">
         <v>1.45</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="22">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -9051,29 +13985,57 @@
       <c r="Q16" s="2">
         <v>0.48</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="19">
         <v>0.86</v>
       </c>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="35">
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="32">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AC16" s="27">
+      <c r="AC16" s="24">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AD16" s="24">
         <v>1.86</v>
       </c>
-      <c r="AE16" s="32">
+      <c r="AE16" s="29">
         <v>1.75</v>
       </c>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AO16" s="37">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AP16" s="38">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AQ16" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR16" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="BB16" s="37">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="BC16" s="38">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="BD16" s="38">
+        <v>1.85</v>
+      </c>
+      <c r="BE16" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9088,7 +14050,7 @@
       <c r="E17" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="22">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -9099,29 +14061,57 @@
       <c r="Q17" s="2">
         <v>0.77</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="19">
         <v>0.63</v>
       </c>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="35">
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="32">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="AC17" s="27">
+      <c r="AC17" s="24">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="AD17" s="27">
+      <c r="AD17" s="24">
         <v>0.61</v>
       </c>
-      <c r="AE17" s="32">
+      <c r="AE17" s="29">
         <v>1.82</v>
       </c>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AO17" s="37">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AP17" s="38">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AQ17" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR17" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB17" s="37">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="BC17" s="38">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="BD17" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="BE17" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9136,7 +14126,7 @@
       <c r="E18" s="4">
         <v>0.76</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="22">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -9147,29 +14137,57 @@
       <c r="Q18" s="2">
         <v>0.95</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="19">
         <v>0.72</v>
       </c>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="35">
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="32">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AC18" s="27">
+      <c r="AC18" s="24">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="AD18" s="27">
+      <c r="AD18" s="24">
         <v>0.62</v>
       </c>
-      <c r="AE18" s="32">
+      <c r="AE18" s="29">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AO18" s="37">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AP18" s="38">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AQ18" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="AR18" s="39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB18" s="37">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="BC18" s="38">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="BD18" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="BE18" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9184,7 +14202,7 @@
       <c r="E19" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="22">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -9195,29 +14213,57 @@
       <c r="Q19" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="19">
         <v>0.85</v>
       </c>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="35">
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="32">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AC19" s="27">
+      <c r="AC19" s="24">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="AD19" s="27">
+      <c r="AD19" s="24">
         <v>0.61</v>
       </c>
-      <c r="AE19" s="32">
+      <c r="AE19" s="29">
         <v>0.81</v>
       </c>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AO19" s="37">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AP19" s="38">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AQ19" s="38">
+        <v>1.73</v>
+      </c>
+      <c r="AR19" s="39">
+        <v>0.53</v>
+      </c>
+      <c r="BB19" s="37">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="BC19" s="38">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="BD19" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="BE19" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9232,7 +14278,7 @@
       <c r="E20" s="4">
         <v>0.59</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="22">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -9243,29 +14289,57 @@
       <c r="Q20" s="2">
         <v>1.46</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="19">
         <v>1.04</v>
       </c>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="35">
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="32">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AC20" s="27">
+      <c r="AC20" s="24">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AD20" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE20" s="32">
+      <c r="AE20" s="29">
         <v>0.69</v>
       </c>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AO20" s="37">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AP20" s="38">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AQ20" s="38">
+        <v>1.81</v>
+      </c>
+      <c r="AR20" s="39">
+        <v>1.73</v>
+      </c>
+      <c r="BB20" s="37">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="BC20" s="38">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="BD20" s="38">
+        <v>0.54</v>
+      </c>
+      <c r="BE20" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9280,7 +14354,7 @@
       <c r="E21" s="4">
         <v>0.73</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -9291,29 +14365,57 @@
       <c r="Q21" s="2">
         <v>1.8</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="19">
         <v>1.29</v>
       </c>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="35">
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="32">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AC21" s="27">
+      <c r="AC21" s="24">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="AD21" s="27">
+      <c r="AD21" s="24">
         <v>0.65</v>
       </c>
-      <c r="AE21" s="32">
+      <c r="AE21" s="29">
         <v>0.61</v>
       </c>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AO21" s="37">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AP21" s="38">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AQ21" s="38">
+        <v>1.83</v>
+      </c>
+      <c r="AR21" s="39">
+        <v>1.81</v>
+      </c>
+      <c r="BB21" s="37">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="BC21" s="38">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="BD21" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="BE21" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9328,7 +14430,7 @@
       <c r="E22" s="4">
         <v>1.02</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -9339,29 +14441,57 @@
       <c r="Q22" s="2">
         <v>1.55</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="19">
         <v>1.59</v>
       </c>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="35">
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="32">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AC22" s="27">
+      <c r="AC22" s="24">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AD22" s="27">
+      <c r="AD22" s="24">
         <v>1.85</v>
       </c>
-      <c r="AE22" s="32">
+      <c r="AE22" s="29">
         <v>0.63</v>
       </c>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AO22" s="37">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AP22" s="38">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AQ22" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="AR22" s="39">
+        <v>1.83</v>
+      </c>
+      <c r="BB22" s="37">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="BC22" s="38">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="BD22" s="38">
+        <v>1.75</v>
+      </c>
+      <c r="BE22" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9376,7 +14506,7 @@
       <c r="E23" s="4">
         <v>1.37</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="22">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -9387,29 +14517,57 @@
       <c r="Q23" s="2">
         <v>1.33</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="19">
         <v>1.57</v>
       </c>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="35">
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="32">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AC23" s="27">
+      <c r="AC23" s="24">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="AD23" s="27">
+      <c r="AD23" s="24">
         <v>1.87</v>
       </c>
-      <c r="AE23" s="32">
+      <c r="AE23" s="29">
         <v>1.36</v>
       </c>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AO23" s="37">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AP23" s="38">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AQ23" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="AR23" s="39">
+        <v>1.76</v>
+      </c>
+      <c r="BB23" s="37">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="BC23" s="38">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="BD23" s="38">
+        <v>1.83</v>
+      </c>
+      <c r="BE23" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9424,7 +14582,7 @@
       <c r="E24" s="4">
         <v>1.61</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -9435,29 +14593,57 @@
       <c r="Q24" s="2">
         <v>0.96</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="19">
         <v>1.42</v>
       </c>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="35">
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="32">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AC24" s="27">
+      <c r="AC24" s="24">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="AD24" s="27">
+      <c r="AD24" s="24">
         <v>1.73</v>
       </c>
-      <c r="AE24" s="32">
+      <c r="AE24" s="29">
         <v>1.67</v>
       </c>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AO24" s="37">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AP24" s="38">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="38">
+        <v>0.59</v>
+      </c>
+      <c r="AR24" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="BB24" s="37">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="BC24" s="38">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="BD24" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="BE24" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9472,7 +14658,7 @@
       <c r="E25" s="4">
         <v>1.66</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="22">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -9483,29 +14669,57 @@
       <c r="Q25" s="2">
         <v>0.69</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="35">
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="32">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="AC25" s="27">
+      <c r="AC25" s="24">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AD25" s="27">
+      <c r="AD25" s="24">
         <v>1.76</v>
       </c>
-      <c r="AE25" s="32">
+      <c r="AE25" s="29">
         <v>1.7</v>
       </c>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AO25" s="37">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AP25" s="38">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AQ25" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="AR25" s="39">
+        <v>0.59</v>
+      </c>
+      <c r="BB25" s="37">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="BC25" s="38">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="BD25" s="38">
+        <v>1.82</v>
+      </c>
+      <c r="BE25" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9520,7 +14734,7 @@
       <c r="E26" s="4">
         <v>1.48</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="22">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -9531,29 +14745,57 @@
       <c r="Q26" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="19">
         <v>0.87</v>
       </c>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="35">
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="32">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC26" s="27">
+      <c r="AC26" s="24">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="AD26" s="27">
+      <c r="AD26" s="24">
         <v>1.77</v>
       </c>
-      <c r="AE26" s="32">
+      <c r="AE26" s="29">
         <v>1.74</v>
       </c>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AO26" s="37">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AP26" s="38">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="38">
+        <v>0.59</v>
+      </c>
+      <c r="AR26" s="39">
+        <v>0.47</v>
+      </c>
+      <c r="BB26" s="37">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="BC26" s="38">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="BD26" s="38">
+        <v>1.86</v>
+      </c>
+      <c r="BE26" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9568,7 +14810,7 @@
       <c r="E27" s="4">
         <v>1.24</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -9579,29 +14821,57 @@
       <c r="Q27" s="2">
         <v>0.68</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="19">
         <v>0.68</v>
       </c>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="35">
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="32">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AC27" s="27">
+      <c r="AC27" s="24">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="AD27" s="27">
+      <c r="AD27" s="24">
         <v>0.61</v>
       </c>
-      <c r="AE27" s="32">
+      <c r="AE27" s="29">
         <v>1.76</v>
       </c>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AO27" s="37">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AP27" s="38">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AQ27" s="38">
+        <v>0.48</v>
+      </c>
+      <c r="AR27" s="39">
+        <v>0.59</v>
+      </c>
+      <c r="BB27" s="37">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="BC27" s="38">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="BD27" s="38">
+        <v>0.62</v>
+      </c>
+      <c r="BE27" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9616,7 +14886,7 @@
       <c r="E28" s="4">
         <v>0.88</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="22">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -9627,29 +14897,57 @@
       <c r="Q28" s="2">
         <v>0.98</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="19">
         <v>0.68</v>
       </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="35">
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="32">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="AC28" s="27">
+      <c r="AC28" s="24">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="AD28" s="27">
+      <c r="AD28" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AE28" s="32">
+      <c r="AE28" s="29">
         <v>1.07</v>
       </c>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AO28" s="37">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AP28" s="38">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="AQ28" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AR28" s="39">
+        <v>0.48</v>
+      </c>
+      <c r="BB28" s="37">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="BC28" s="38">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="BD28" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE28" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9664,7 +14962,7 @@
       <c r="E29" s="4">
         <v>0.64</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="22">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -9675,29 +14973,57 @@
       <c r="Q29" s="2">
         <v>1.22</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="19">
         <v>0.86</v>
       </c>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="35">
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="32">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="AC29" s="27">
+      <c r="AC29" s="24">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="AD29" s="27">
+      <c r="AD29" s="24">
         <v>0.5</v>
       </c>
-      <c r="AE29" s="32">
+      <c r="AE29" s="29">
         <v>0.75</v>
       </c>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AO29" s="37">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AP29" s="38">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="AQ29" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="AR29" s="39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BB29" s="37">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="BC29" s="38">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="BD29" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BE29" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9712,7 +15038,7 @@
       <c r="E30" s="4">
         <v>0.51</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="22">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9723,29 +15049,57 @@
       <c r="Q30" s="2">
         <v>1.53</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="19">
         <v>1.08</v>
       </c>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="35">
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="32">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AC30" s="27">
+      <c r="AC30" s="24">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="AD30" s="27">
+      <c r="AD30" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE30" s="32">
+      <c r="AE30" s="29">
         <v>0.6</v>
       </c>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AO30" s="37">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AP30" s="38">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="AQ30" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="AR30" s="39">
+        <v>0.53</v>
+      </c>
+      <c r="BB30" s="37">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="BC30" s="38">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="BD30" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="BE30" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9760,7 +15114,7 @@
       <c r="E31" s="4">
         <v>0.72</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="22">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -9771,29 +15125,57 @@
       <c r="Q31" s="2">
         <v>1.64</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="19">
         <v>1.35</v>
       </c>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="35">
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="32">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="AC31" s="27">
+      <c r="AC31" s="24">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="AD31" s="27">
+      <c r="AD31" s="24">
         <v>0.62</v>
       </c>
-      <c r="AE31" s="32">
+      <c r="AE31" s="29">
         <v>0.59</v>
       </c>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AO31" s="37">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AP31" s="38">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="AQ31" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="AR31" s="39">
+        <v>1.72</v>
+      </c>
+      <c r="BB31" s="37">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="BC31" s="38">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="BD31" s="38">
+        <v>0.51</v>
+      </c>
+      <c r="BE31" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9808,7 +15190,7 @@
       <c r="E32" s="4">
         <v>0.97</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="22">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -9819,29 +15201,57 @@
       <c r="Q32" s="2">
         <v>1.72</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="19">
         <v>1.52</v>
       </c>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="35">
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="32">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="AC32" s="27">
+      <c r="AC32" s="24">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="AD32" s="27">
+      <c r="AD32" s="24">
         <v>1.71</v>
       </c>
-      <c r="AE32" s="32">
+      <c r="AE32" s="29">
         <v>0.61</v>
       </c>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AO32" s="37">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AP32" s="38">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AQ32" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="AR32" s="39">
+        <v>1.71</v>
+      </c>
+      <c r="BB32" s="37">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="BC32" s="38">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="BD32" s="38">
+        <v>1.78</v>
+      </c>
+      <c r="BE32" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9856,7 +15266,7 @@
       <c r="E33" s="4">
         <v>1.32</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="22">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -9867,29 +15277,57 @@
       <c r="Q33" s="2">
         <v>1.41</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="19">
         <v>1.64</v>
       </c>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="35">
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="32">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="AC33" s="27">
+      <c r="AC33" s="24">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="AD33" s="27">
+      <c r="AD33" s="24">
         <v>1.86</v>
       </c>
-      <c r="AE33" s="32">
+      <c r="AE33" s="29">
         <v>1.27</v>
       </c>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AO33" s="37">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="AP33" s="38">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AQ33" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="AR33" s="39">
+        <v>1.72</v>
+      </c>
+      <c r="BB33" s="37">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="BC33" s="38">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="BD33" s="38">
+        <v>1.86</v>
+      </c>
+      <c r="BE33" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9904,7 +15342,7 @@
       <c r="E34" s="4">
         <v>1.56</v>
       </c>
-      <c r="O34" s="25">
+      <c r="O34" s="22">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -9915,29 +15353,57 @@
       <c r="Q34" s="2">
         <v>1.18</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="19">
         <v>1.5</v>
       </c>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="35">
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="32">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AC34" s="27">
+      <c r="AC34" s="24">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="AD34" s="27">
+      <c r="AD34" s="24">
         <v>1.87</v>
       </c>
-      <c r="AE34" s="32">
+      <c r="AE34" s="29">
         <v>1.63</v>
       </c>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AO34" s="37">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AP34" s="38">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AQ34" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="AR34" s="39">
+        <v>1.76</v>
+      </c>
+      <c r="BB34" s="37">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="BC34" s="38">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="BD34" s="38">
+        <v>1.73</v>
+      </c>
+      <c r="BE34" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -9952,7 +15418,7 @@
       <c r="E35" s="4">
         <v>1.69</v>
       </c>
-      <c r="O35" s="25">
+      <c r="O35" s="22">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -9963,29 +15429,57 @@
       <c r="Q35" s="2">
         <v>0.77</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="19">
         <v>1.31</v>
       </c>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="35">
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="32">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="AC35" s="27">
+      <c r="AC35" s="24">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="AD35" s="27">
+      <c r="AD35" s="24">
         <v>1.74</v>
       </c>
-      <c r="AE35" s="32">
+      <c r="AE35" s="29">
         <v>1.77</v>
       </c>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AO35" s="37">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AP35" s="38">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AQ35" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="AR35" s="39">
+        <v>1.87</v>
+      </c>
+      <c r="BB35" s="37">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="BC35" s="38">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="BD35" s="38">
+        <v>1.82</v>
+      </c>
+      <c r="BE35" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10000,7 +15494,7 @@
       <c r="E36" s="4">
         <v>1.53</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="22">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -10011,29 +15505,57 @@
       <c r="Q36" s="2">
         <v>0.48</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="19">
         <v>0.99</v>
       </c>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="35">
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="32">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="AC36" s="27">
+      <c r="AC36" s="24">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="AD36" s="27">
+      <c r="AD36" s="24">
         <v>1.87</v>
       </c>
-      <c r="AE36" s="32">
+      <c r="AE36" s="29">
         <v>1.75</v>
       </c>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AO36" s="37">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AP36" s="38">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AQ36" s="38">
+        <v>0.47</v>
+      </c>
+      <c r="AR36" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="BB36" s="37">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="BC36" s="38">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="BD36" s="38">
+        <v>1.77</v>
+      </c>
+      <c r="BE36" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10048,7 +15570,7 @@
       <c r="E37" s="4">
         <v>1.32</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="22">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
@@ -10059,29 +15581,57 @@
       <c r="Q37" s="2">
         <v>0.6</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="19">
         <v>0.68</v>
       </c>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="35">
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="32">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="AC37" s="27">
+      <c r="AC37" s="24">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="AD37" s="27">
+      <c r="AD37" s="24">
         <v>0.51</v>
       </c>
-      <c r="AE37" s="32">
+      <c r="AE37" s="29">
         <v>1.82</v>
       </c>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AO37" s="37">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AP37" s="38">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AQ37" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="AR37" s="39">
+        <v>0.47</v>
+      </c>
+      <c r="BB37" s="37">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="BC37" s="38">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="BD37" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BE37" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -10096,7 +15646,7 @@
       <c r="E38" s="4">
         <v>0.93</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="22">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -10107,29 +15657,57 @@
       <c r="Q38" s="2">
         <v>0.82</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="19">
         <v>0.64</v>
       </c>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="35">
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="32">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="AC38" s="27">
+      <c r="AC38" s="24">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="AD38" s="27">
+      <c r="AD38" s="24">
         <v>0.62</v>
       </c>
-      <c r="AE38" s="32">
+      <c r="AE38" s="29">
         <v>1.04</v>
       </c>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AO38" s="37">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AP38" s="38">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AQ38" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AR38" s="39">
+        <v>0.61</v>
+      </c>
+      <c r="BB38" s="37">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="BC38" s="38">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="BD38" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BE38" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -10144,7 +15722,7 @@
       <c r="E39" s="4">
         <v>0.62</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="22">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -10155,29 +15733,57 @@
       <c r="Q39" s="2">
         <v>1.05</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="19">
         <v>0.75</v>
       </c>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="35">
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="32">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AC39" s="27">
+      <c r="AC39" s="24">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="AD39" s="27">
+      <c r="AD39" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE39" s="32">
+      <c r="AE39" s="29">
         <v>0.78</v>
       </c>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AO39" s="37">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AP39" s="38">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="AQ39" s="38">
+        <v>0.51</v>
+      </c>
+      <c r="AR39" s="39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BB39" s="37">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="BC39" s="38">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="BD39" s="38">
+        <v>0.62</v>
+      </c>
+      <c r="BE39" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -10192,7 +15798,7 @@
       <c r="E40" s="4">
         <v>0.51</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="22">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -10203,29 +15809,57 @@
       <c r="Q40" s="2">
         <v>1.34</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="19">
         <v>0.93</v>
       </c>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="35">
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="32">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="AC40" s="27">
+      <c r="AC40" s="24">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AD40" s="27">
+      <c r="AD40" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AE40" s="32">
+      <c r="AE40" s="29">
         <v>0.66</v>
       </c>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AO40" s="37">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AP40" s="38">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AQ40" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="AR40" s="39">
+        <v>0.51</v>
+      </c>
+      <c r="BB40" s="37">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="BC40" s="38">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="BD40" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE40" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -10240,7 +15874,7 @@
       <c r="E41" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O41" s="22">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -10251,29 +15885,57 @@
       <c r="Q41" s="2">
         <v>1.58</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="19">
         <v>1.18</v>
       </c>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="35">
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="32">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="AC41" s="27">
+      <c r="AC41" s="24">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="AD41" s="27">
+      <c r="AD41" s="24">
         <v>0.47</v>
       </c>
-      <c r="AE41" s="32">
+      <c r="AE41" s="29">
         <v>0.6</v>
       </c>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AO41" s="37">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AP41" s="38">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="AQ41" s="38">
+        <v>1.82</v>
+      </c>
+      <c r="AR41" s="39">
+        <v>1.71</v>
+      </c>
+      <c r="BB41" s="37">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="BC41" s="38">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="BD41" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE41" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -10288,7 +15950,7 @@
       <c r="E42" s="4">
         <v>0.83</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O42" s="22">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -10299,29 +15961,57 @@
       <c r="Q42" s="2">
         <v>1.62</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="19">
         <v>1.42</v>
       </c>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="35">
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="32">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="AC42" s="27">
+      <c r="AC42" s="24">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="AD42" s="27">
+      <c r="AD42" s="24">
         <v>1.71</v>
       </c>
-      <c r="AE42" s="32">
+      <c r="AE42" s="29">
         <v>0.52</v>
       </c>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AO42" s="37">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="AP42" s="38">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="AQ42" s="38">
+        <v>1.78</v>
+      </c>
+      <c r="AR42" s="39">
+        <v>1.82</v>
+      </c>
+      <c r="BB42" s="37">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="BC42" s="38">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="BD42" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="BE42" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -10336,7 +16026,7 @@
       <c r="E43" s="4">
         <v>1.27</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="22">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -10347,29 +16037,57 @@
       <c r="Q43" s="2">
         <v>1.38</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R43" s="19">
         <v>1.54</v>
       </c>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="35">
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="32">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="AC43" s="27">
+      <c r="AC43" s="24">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="AD43" s="27">
+      <c r="AD43" s="24">
         <v>1.84</v>
       </c>
-      <c r="AE43" s="32">
+      <c r="AE43" s="29">
         <v>1.24</v>
       </c>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AO43" s="37">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AP43" s="38">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AQ43" s="38">
+        <v>1.79</v>
+      </c>
+      <c r="AR43" s="39">
+        <v>1.78</v>
+      </c>
+      <c r="BB43" s="37">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="BC43" s="38">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="BD43" s="38">
+        <v>1.78</v>
+      </c>
+      <c r="BE43" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -10384,7 +16102,7 @@
       <c r="E44" s="4">
         <v>1.52</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="22">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -10395,29 +16113,57 @@
       <c r="Q44" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R44" s="22">
+      <c r="R44" s="19">
         <v>1.44</v>
       </c>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="35">
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="32">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="AC44" s="27">
+      <c r="AC44" s="24">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="AD44" s="27">
+      <c r="AD44" s="24">
         <v>1.81</v>
       </c>
-      <c r="AE44" s="32">
+      <c r="AE44" s="29">
         <v>1.6</v>
       </c>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AO44" s="37">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AP44" s="38">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="AQ44" s="38">
+        <v>1.85</v>
+      </c>
+      <c r="AR44" s="39">
+        <v>1.79</v>
+      </c>
+      <c r="BB44" s="37">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="BC44" s="38">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="BD44" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="BE44" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -10432,7 +16178,7 @@
       <c r="E45" s="4">
         <v>1.7</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="22">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -10443,29 +16189,57 @@
       <c r="Q45" s="2">
         <v>0.97</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="19">
         <v>1.25</v>
       </c>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="35">
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="32">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="AC45" s="27">
+      <c r="AC45" s="24">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="AD45" s="27">
+      <c r="AD45" s="24">
         <v>1.82</v>
       </c>
-      <c r="AE45" s="32">
+      <c r="AE45" s="29">
         <v>1.73</v>
       </c>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AO45" s="37">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="AP45" s="38">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="AQ45" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="AR45" s="39">
+        <v>1.85</v>
+      </c>
+      <c r="BB45" s="37">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="BC45" s="38">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="BD45" s="38">
+        <v>1.86</v>
+      </c>
+      <c r="BE45" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -10480,7 +16254,7 @@
       <c r="E46" s="4">
         <v>1.6</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="22">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
@@ -10491,29 +16265,57 @@
       <c r="Q46" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="19">
         <v>1.08</v>
       </c>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="35">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="32">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="AC46" s="27">
+      <c r="AC46" s="24">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="AD46" s="27">
+      <c r="AD46" s="24">
         <v>1.72</v>
       </c>
-      <c r="AE46" s="32">
+      <c r="AE46" s="29">
         <v>1.78</v>
       </c>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AO46" s="37">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="AP46" s="38">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="AQ46" s="38">
+        <v>0.59</v>
+      </c>
+      <c r="AR46" s="39">
+        <v>0.53</v>
+      </c>
+      <c r="BB46" s="37">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="BC46" s="38">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="BD46" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="BE46" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B47" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -10528,7 +16330,7 @@
       <c r="E47" s="4">
         <v>1.4</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47" s="22">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -10539,29 +16341,57 @@
       <c r="Q47" s="2">
         <v>0.53</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="19">
         <v>0.77</v>
       </c>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="35">
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="32">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="AC47" s="27">
+      <c r="AC47" s="24">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="AD47" s="27">
+      <c r="AD47" s="24">
         <v>1.85</v>
       </c>
-      <c r="AE47" s="32">
+      <c r="AE47" s="29">
         <v>1.74</v>
       </c>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AO47" s="37">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="AP47" s="38">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="AQ47" s="38">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AR47" s="39">
+        <v>0.59</v>
+      </c>
+      <c r="BB47" s="37">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="BC47" s="38">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="BD47" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE47" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -10576,7 +16406,7 @@
       <c r="E48" s="4">
         <v>1.02</v>
       </c>
-      <c r="O48" s="25">
+      <c r="O48" s="22">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -10587,29 +16417,57 @@
       <c r="Q48" s="2">
         <v>0.72</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="19">
         <v>0.63</v>
       </c>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="35">
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="32">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="AC48" s="27">
+      <c r="AC48" s="24">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="AD48" s="27">
+      <c r="AD48" s="24">
         <v>0.6</v>
       </c>
-      <c r="AE48" s="32">
+      <c r="AE48" s="29">
         <v>1.8</v>
       </c>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AO48" s="37">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="AP48" s="38">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="AQ48" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="AR48" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BB48" s="37">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="BC48" s="38">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="BD48" s="38">
+        <v>0.49</v>
+      </c>
+      <c r="BE48" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -10624,7 +16482,7 @@
       <c r="E49" s="4">
         <v>0.76</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="22">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -10635,29 +16493,57 @@
       <c r="Q49" s="2">
         <v>0.99</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="19">
         <v>0.68</v>
       </c>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="35">
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="32">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="AC49" s="27">
+      <c r="AC49" s="24">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="AD49" s="27">
+      <c r="AD49" s="24">
         <v>0.46</v>
       </c>
-      <c r="AE49" s="32">
+      <c r="AE49" s="29">
         <v>1.08</v>
       </c>
-      <c r="AF49" s="16"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="16"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AO49" s="37">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="AP49" s="38">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="AQ49" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="AR49" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="BB49" s="37">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="BC49" s="38">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="BD49" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BE49" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -10672,7 +16558,7 @@
       <c r="E50" s="4">
         <v>0.53</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="22">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -10683,29 +16569,57 @@
       <c r="Q50" s="2">
         <v>1.33</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="19">
         <v>0.86</v>
       </c>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="35">
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="32">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="AC50" s="27">
+      <c r="AC50" s="24">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="AD50" s="27">
+      <c r="AD50" s="24">
         <v>0.5</v>
       </c>
-      <c r="AE50" s="32">
+      <c r="AE50" s="29">
         <v>0.71</v>
       </c>
-      <c r="AF50" s="16"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="16"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AO50" s="37">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="AP50" s="38">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="AQ50" s="38">
+        <v>1.74</v>
+      </c>
+      <c r="AR50" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="BB50" s="37">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="BC50" s="38">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="BD50" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="BE50" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B51" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -10720,7 +16634,7 @@
       <c r="E51" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O51" s="25">
+      <c r="O51" s="22">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
@@ -10731,29 +16645,57 @@
       <c r="Q51" s="2">
         <v>1.66</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="35">
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="32">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="AC51" s="27">
+      <c r="AC51" s="24">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="AD51" s="27">
+      <c r="AD51" s="24">
         <v>0.6</v>
       </c>
-      <c r="AE51" s="32">
+      <c r="AE51" s="29">
         <v>0.59</v>
       </c>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="16"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AO51" s="37">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="AP51" s="38">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="AQ51" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="AR51" s="39">
+        <v>1.74</v>
+      </c>
+      <c r="BB51" s="37">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="BC51" s="38">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="BD51" s="38">
+        <v>0.48</v>
+      </c>
+      <c r="BE51" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B52" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -10768,7 +16710,7 @@
       <c r="E52" s="4">
         <v>0.77</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="22">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -10779,29 +16721,57 @@
       <c r="Q52" s="2">
         <v>1.77</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="19">
         <v>1.45</v>
       </c>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="35">
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="32">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="AC52" s="27">
+      <c r="AC52" s="24">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="AD52" s="27">
+      <c r="AD52" s="24">
         <v>0.6</v>
       </c>
-      <c r="AE52" s="32">
+      <c r="AE52" s="29">
         <v>0.6</v>
       </c>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="16"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AO52" s="37">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="AP52" s="38">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="AQ52" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="AR52" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="BB52" s="37">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="BC52" s="38">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="BD52" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BE52" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -10816,7 +16786,7 @@
       <c r="E53" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="22">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -10827,29 +16797,57 @@
       <c r="Q53" s="2">
         <v>1.41</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="19">
         <v>1.64</v>
       </c>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="35">
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="32">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="AC53" s="27">
+      <c r="AC53" s="24">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="AD53" s="27">
+      <c r="AD53" s="24">
         <v>1.86</v>
       </c>
-      <c r="AE53" s="32">
+      <c r="AE53" s="29">
         <v>0.6</v>
       </c>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="16"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AO53" s="37">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="AP53" s="38">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="AQ53" s="38">
+        <v>1.79</v>
+      </c>
+      <c r="AR53" s="39">
+        <v>1.72</v>
+      </c>
+      <c r="BB53" s="37">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="BC53" s="38">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="BD53" s="38">
+        <v>1.87</v>
+      </c>
+      <c r="BE53" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B54" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -10864,7 +16862,7 @@
       <c r="E54" s="4">
         <v>1.42</v>
       </c>
-      <c r="O54" s="25">
+      <c r="O54" s="22">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -10875,29 +16873,57 @@
       <c r="Q54" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R54" s="22">
+      <c r="R54" s="19">
         <v>1.5</v>
       </c>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="35">
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="32">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="AC54" s="27">
+      <c r="AC54" s="24">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="AD54" s="27">
+      <c r="AD54" s="24">
         <v>1.76</v>
       </c>
-      <c r="AE54" s="32">
+      <c r="AE54" s="29">
         <v>1.36</v>
       </c>
-      <c r="AF54" s="16"/>
-      <c r="AG54" s="16"/>
-      <c r="AH54" s="16"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AO54" s="37">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AP54" s="38">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="AQ54" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="AR54" s="39">
+        <v>1.79</v>
+      </c>
+      <c r="BB54" s="37">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="BC54" s="38">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="BD54" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="BE54" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="11">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -10912,340 +16938,808 @@
       <c r="E55" s="5">
         <v>1.64</v>
       </c>
-      <c r="O55" s="26">
+      <c r="O55" s="23">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="P55" s="23">
+      <c r="P55" s="20">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="Q55" s="20">
         <v>0.98</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R55" s="21">
         <v>1.29</v>
       </c>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="36">
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="33">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="AC55" s="33">
+      <c r="AC55" s="30">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="AD55" s="33">
+      <c r="AD55" s="30">
         <v>1.75</v>
       </c>
-      <c r="AE55" s="34">
+      <c r="AE55" s="31">
         <v>1.6</v>
       </c>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="16"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AO55" s="37">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="AP55" s="38">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AQ55" s="41">
+        <v>0.61</v>
+      </c>
+      <c r="AR55" s="42">
+        <v>1.71</v>
+      </c>
+      <c r="BB55" s="40">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="BC55" s="38">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="BD55" s="38">
+        <v>1.71</v>
+      </c>
+      <c r="BE55" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B63" s="10"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="10"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="10"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="10"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="10"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="10"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="10"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="10"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="10"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="10"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="10"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="10"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="10"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="10"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="10"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="10"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="10"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="10"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="10"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="10"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="10"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="10"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="10"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="10"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="10"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="10"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="10"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="BG3:BM3"/>
     <mergeCell ref="G3:M3"/>
     <mergeCell ref="T3:Z3"/>
     <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="AT3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B182729E-8E8B-49A8-A1A7-AA45B5F3ABB9}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Folha1!BE5:BE5</xm:f>
+              <xm:sqref>BB5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE6:BE6</xm:f>
+              <xm:sqref>BB6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE7:BE7</xm:f>
+              <xm:sqref>BB7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE8:BE8</xm:f>
+              <xm:sqref>BB8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE9:BE9</xm:f>
+              <xm:sqref>BB9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE10:BE10</xm:f>
+              <xm:sqref>BB10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE11:BE11</xm:f>
+              <xm:sqref>BB11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE12:BE12</xm:f>
+              <xm:sqref>BB12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE13:BE13</xm:f>
+              <xm:sqref>BB13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE14:BE14</xm:f>
+              <xm:sqref>BB14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE15:BE15</xm:f>
+              <xm:sqref>BB15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE16:BE16</xm:f>
+              <xm:sqref>BB16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE17:BE17</xm:f>
+              <xm:sqref>BB17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE18:BE18</xm:f>
+              <xm:sqref>BB18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE19:BE19</xm:f>
+              <xm:sqref>BB19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE20:BE20</xm:f>
+              <xm:sqref>BB20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE21:BE21</xm:f>
+              <xm:sqref>BB21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE22:BE22</xm:f>
+              <xm:sqref>BB22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE23:BE23</xm:f>
+              <xm:sqref>BB23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE24:BE24</xm:f>
+              <xm:sqref>BB24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE25:BE25</xm:f>
+              <xm:sqref>BB25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE26:BE26</xm:f>
+              <xm:sqref>BB26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE27:BE27</xm:f>
+              <xm:sqref>BB27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE28:BE28</xm:f>
+              <xm:sqref>BB28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE29:BE29</xm:f>
+              <xm:sqref>BB29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE30:BE30</xm:f>
+              <xm:sqref>BB30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE31:BE31</xm:f>
+              <xm:sqref>BB31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE32:BE32</xm:f>
+              <xm:sqref>BB32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE33:BE33</xm:f>
+              <xm:sqref>BB33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE34:BE34</xm:f>
+              <xm:sqref>BB34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE35:BE35</xm:f>
+              <xm:sqref>BB35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE36:BE36</xm:f>
+              <xm:sqref>BB36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE37:BE37</xm:f>
+              <xm:sqref>BB37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE38:BE38</xm:f>
+              <xm:sqref>BB38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE39:BE39</xm:f>
+              <xm:sqref>BB39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE40:BE40</xm:f>
+              <xm:sqref>BB40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE41:BE41</xm:f>
+              <xm:sqref>BB41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE42:BE42</xm:f>
+              <xm:sqref>BB42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE43:BE43</xm:f>
+              <xm:sqref>BB43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE44:BE44</xm:f>
+              <xm:sqref>BB44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE45:BE45</xm:f>
+              <xm:sqref>BB45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE46:BE46</xm:f>
+              <xm:sqref>BB46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE47:BE47</xm:f>
+              <xm:sqref>BB47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE48:BE48</xm:f>
+              <xm:sqref>BB48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE49:BE49</xm:f>
+              <xm:sqref>BB49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE50:BE50</xm:f>
+              <xm:sqref>BB50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE51:BE51</xm:f>
+              <xm:sqref>BB51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE52:BE52</xm:f>
+              <xm:sqref>BB52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE53:BE53</xm:f>
+              <xm:sqref>BB53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE54:BE54</xm:f>
+              <xm:sqref>BB54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!BE55:BE55</xm:f>
+              <xm:sqref>BB55</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1625B568-B445-4C91-9F2B-C57DFCD686A2}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Folha1!AR5:AR5</xm:f>
+              <xm:sqref>AO5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR6:AR6</xm:f>
+              <xm:sqref>AO6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR7:AR7</xm:f>
+              <xm:sqref>AO7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR8:AR8</xm:f>
+              <xm:sqref>AO8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR9:AR9</xm:f>
+              <xm:sqref>AO9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR10:AR10</xm:f>
+              <xm:sqref>AO10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR11:AR11</xm:f>
+              <xm:sqref>AO11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR12:AR12</xm:f>
+              <xm:sqref>AO12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR13:AR13</xm:f>
+              <xm:sqref>AO13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR14:AR14</xm:f>
+              <xm:sqref>AO14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR15:AR15</xm:f>
+              <xm:sqref>AO15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR16:AR16</xm:f>
+              <xm:sqref>AO16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR17:AR17</xm:f>
+              <xm:sqref>AO17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR18:AR18</xm:f>
+              <xm:sqref>AO18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR19:AR19</xm:f>
+              <xm:sqref>AO19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR20:AR20</xm:f>
+              <xm:sqref>AO20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR21:AR21</xm:f>
+              <xm:sqref>AO21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR22:AR22</xm:f>
+              <xm:sqref>AO22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR23:AR23</xm:f>
+              <xm:sqref>AO23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR24:AR24</xm:f>
+              <xm:sqref>AO24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR25:AR25</xm:f>
+              <xm:sqref>AO25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR26:AR26</xm:f>
+              <xm:sqref>AO26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR27:AR27</xm:f>
+              <xm:sqref>AO27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR28:AR28</xm:f>
+              <xm:sqref>AO28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR29:AR29</xm:f>
+              <xm:sqref>AO29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR30:AR30</xm:f>
+              <xm:sqref>AO30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR31:AR31</xm:f>
+              <xm:sqref>AO31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR32:AR32</xm:f>
+              <xm:sqref>AO32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR33:AR33</xm:f>
+              <xm:sqref>AO33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR34:AR34</xm:f>
+              <xm:sqref>AO34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR35:AR35</xm:f>
+              <xm:sqref>AO35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR36:AR36</xm:f>
+              <xm:sqref>AO36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR37:AR37</xm:f>
+              <xm:sqref>AO37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR38:AR38</xm:f>
+              <xm:sqref>AO38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR39:AR39</xm:f>
+              <xm:sqref>AO39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR40:AR40</xm:f>
+              <xm:sqref>AO40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR41:AR41</xm:f>
+              <xm:sqref>AO41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR42:AR42</xm:f>
+              <xm:sqref>AO42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR43:AR43</xm:f>
+              <xm:sqref>AO43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR44:AR44</xm:f>
+              <xm:sqref>AO44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR45:AR45</xm:f>
+              <xm:sqref>AO45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR46:AR46</xm:f>
+              <xm:sqref>AO46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR47:AR47</xm:f>
+              <xm:sqref>AO47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR48:AR48</xm:f>
+              <xm:sqref>AO48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR49:AR49</xm:f>
+              <xm:sqref>AO49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR50:AR50</xm:f>
+              <xm:sqref>AO50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR51:AR51</xm:f>
+              <xm:sqref>AO51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR52:AR52</xm:f>
+              <xm:sqref>AO52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR53:AR53</xm:f>
+              <xm:sqref>AO53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR54:AR54</xm:f>
+              <xm:sqref>AO54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Folha1!AR55:AR55</xm:f>
+              <xm:sqref>AO55</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>